--- a/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/TOC_School_IngestionFile.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/TOC_School_IngestionFile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ram.sin\git_selenium\lomt_automation\src\main\java\lomt\pearson\fileupload\nals_school_global\producttoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lomt_automation\src\main\java\lomt\pearson\fileupload\nals_school_global\producttoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
   <si>
     <t>Program Title</t>
   </si>
@@ -38,15 +38,9 @@
     <t>Country</t>
   </si>
   <si>
-    <t>India</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
-    <t>UP</t>
-  </si>
-  <si>
     <t>Market - Province (INTL)</t>
   </si>
   <si>
@@ -267,6 +261,9 @@
   </si>
   <si>
     <t>School_Product_24July_NoAlign-02</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
   </si>
 </sst>
 </file>
@@ -666,7 +663,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -702,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -710,36 +707,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -747,7 +742,7 @@
     </row>
     <row r="8" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
@@ -755,76 +750,76 @@
     </row>
     <row r="9" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="M12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -834,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -843,14 +838,14 @@
         <v>5</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="3"/>
@@ -866,7 +861,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" s="3">
         <v>6</v>
@@ -875,14 +870,14 @@
         <v>10</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="3"/>
@@ -896,7 +891,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -905,13 +900,13 @@
         <v>4</v>
       </c>
       <c r="G15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -919,7 +914,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -928,13 +923,13 @@
         <v>6</v>
       </c>
       <c r="G16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
@@ -942,7 +937,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -951,13 +946,13 @@
         <v>6</v>
       </c>
       <c r="G17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
@@ -965,7 +960,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E18">
         <v>7</v>
@@ -974,13 +969,13 @@
         <v>8</v>
       </c>
       <c r="G18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
@@ -988,7 +983,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E19">
         <v>9</v>
@@ -997,13 +992,13 @@
         <v>10</v>
       </c>
       <c r="G19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
@@ -1011,7 +1006,7 @@
         <v>8</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E20">
         <v>11</v>
@@ -1020,13 +1015,13 @@
         <v>12</v>
       </c>
       <c r="G20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
@@ -1034,7 +1029,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E21">
         <v>13</v>
@@ -1043,13 +1038,13 @@
         <v>14</v>
       </c>
       <c r="G21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J21" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.25">
@@ -1057,7 +1052,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E22">
         <v>15</v>
@@ -1066,13 +1061,13 @@
         <v>16</v>
       </c>
       <c r="G22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
@@ -1080,7 +1075,7 @@
         <v>11</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E23">
         <v>17</v>
@@ -1089,13 +1084,13 @@
         <v>18</v>
       </c>
       <c r="G23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.25">
@@ -1103,7 +1098,7 @@
         <v>12</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E24">
         <v>19</v>
@@ -1112,13 +1107,13 @@
         <v>20</v>
       </c>
       <c r="G24" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
